--- a/MarsFramework/ExcelData/TestData.xlsx
+++ b/MarsFramework/ExcelData/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vidhya\Downloads\MarsFramework\MarsFramework\MarsFramework\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Internship\Competition_Task\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA428059-39C0-4B90-8BCF-7E49202B9138}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CB210D-C1F4-4FF0-A2B7-619DFE97BC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
@@ -93,18 +93,6 @@
     <t>ConfirmPswd</t>
   </si>
   <si>
-    <t>Venugan</t>
-  </si>
-  <si>
-    <t>Vidhya</t>
-  </si>
-  <si>
-    <t>vidhyav9@gmail.com</t>
-  </si>
-  <si>
-    <t>Ithika2015</t>
-  </si>
-  <si>
     <t>Australia</t>
   </si>
   <si>
@@ -118,6 +106,18 @@
   </si>
   <si>
     <t>3 years as Oracle Developer and 2 years as Project Management Operations Lead</t>
+  </si>
+  <si>
+    <t>Reema</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>reemarobin1993@gmail.com</t>
+  </si>
+  <si>
+    <t>Marsproject143@</t>
   </si>
 </sst>
 </file>
@@ -516,7 +516,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,24 +547,26 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{D001FDEC-9C82-49EC-B919-8725FD351756}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{9E4C8489-189A-4B90-8639-E82CEC2A7430}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -601,17 +603,17 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C2" r:id="rId3" display="Test@123" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
@@ -623,7 +625,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,10 +677,10 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -687,10 +689,10 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -699,7 +701,7 @@
         <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
